--- a/基本信息1.xlsx
+++ b/基本信息1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\数据资料\联影电影数据\rarvproj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E91B32F-B82B-4AB1-B884-409657FD2C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3B0BE2-C997-4338-837E-7239F8C6970D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="9">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -401,15 +401,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" activeCellId="1" sqref="B1:B1048576 D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48:G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -479,7 +482,7 @@
         <v>71</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G48" si="0">F3/E3/E3</f>
+        <f t="shared" ref="G3:G52" si="0">F3/E3/E3</f>
         <v>26.078971533516992</v>
       </c>
     </row>
@@ -1561,6 +1564,102 @@
       <c r="G48" s="2">
         <f t="shared" si="0"/>
         <v>23.634033007530842</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>12498021</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="1">
+        <v>51</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="F49" s="1">
+        <v>80</v>
+      </c>
+      <c r="G49" s="2">
+        <f t="shared" si="0"/>
+        <v>29.38475665748393</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>12515254</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="1">
+        <v>43</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="F50" s="1">
+        <v>67</v>
+      </c>
+      <c r="G50" s="2">
+        <f t="shared" si="0"/>
+        <v>23.183391003460208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>12320234</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="1">
+        <v>52</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1.61</v>
+      </c>
+      <c r="F51" s="1">
+        <v>53</v>
+      </c>
+      <c r="G51" s="2">
+        <f t="shared" si="0"/>
+        <v>20.446742023841672</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>12509796</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="1">
+        <v>36</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="F52" s="1">
+        <v>70</v>
+      </c>
+      <c r="G52" s="2">
+        <f t="shared" si="0"/>
+        <v>22.857142857142858</v>
       </c>
     </row>
   </sheetData>

--- a/基本信息1.xlsx
+++ b/基本信息1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\数据资料\联影电影数据\rarvproj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3B0BE2-C997-4338-837E-7239F8C6970D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C424C65F-3FF0-43DE-BFB4-1A41FEE179B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48:G52"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53:G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -482,7 +482,7 @@
         <v>71</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G52" si="0">F3/E3/E3</f>
+        <f t="shared" ref="G3:G65" si="0">F3/E3/E3</f>
         <v>26.078971533516992</v>
       </c>
     </row>
@@ -1660,6 +1660,162 @@
       <c r="G52" s="2">
         <f t="shared" si="0"/>
         <v>22.857142857142858</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E53" s="1">
+        <v>1.72</v>
+      </c>
+      <c r="F53" s="1">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="G53" s="2">
+        <f t="shared" si="0"/>
+        <v>27.075446187128176</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E54" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="F54" s="1">
+        <v>53</v>
+      </c>
+      <c r="G54" s="2">
+        <f t="shared" si="0"/>
+        <v>20.703125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E55" s="1">
+        <v>1.58</v>
+      </c>
+      <c r="F55" s="1">
+        <v>57.7</v>
+      </c>
+      <c r="G55" s="2">
+        <f t="shared" si="0"/>
+        <v>23.113283127703895</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E56" s="1">
+        <v>1.64</v>
+      </c>
+      <c r="F56" s="1">
+        <v>72.3</v>
+      </c>
+      <c r="G56" s="2">
+        <f t="shared" si="0"/>
+        <v>26.881320642474719</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E57" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="F57" s="1">
+        <v>84</v>
+      </c>
+      <c r="G57" s="2">
+        <f t="shared" si="0"/>
+        <v>30.853994490358129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E58" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="F58" s="1">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="G58" s="2">
+        <f t="shared" si="0"/>
+        <v>26.666666666666668</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E59" s="1">
+        <v>1.72</v>
+      </c>
+      <c r="F59" s="1">
+        <v>100</v>
+      </c>
+      <c r="G59" s="2">
+        <f t="shared" si="0"/>
+        <v>33.802055164954034</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E60" s="1">
+        <v>1.69</v>
+      </c>
+      <c r="F60" s="1">
+        <v>68</v>
+      </c>
+      <c r="G60" s="2">
+        <f t="shared" si="0"/>
+        <v>23.808690171912751</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E61" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="F61" s="1">
+        <v>72.5</v>
+      </c>
+      <c r="G61" s="2">
+        <f t="shared" si="0"/>
+        <v>27.625361987501901</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E62" s="1">
+        <v>1.69</v>
+      </c>
+      <c r="F62" s="1">
+        <v>68.8</v>
+      </c>
+      <c r="G62" s="2">
+        <f t="shared" si="0"/>
+        <v>24.08879240922937</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E63" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="F63" s="1">
+        <v>57.2</v>
+      </c>
+      <c r="G63" s="2">
+        <f t="shared" si="0"/>
+        <v>23.205809566311004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E64" s="1">
+        <v>1.58</v>
+      </c>
+      <c r="F64" s="1">
+        <v>67.2</v>
+      </c>
+      <c r="G64" s="2">
+        <f t="shared" si="0"/>
+        <v>26.918763018746994</v>
+      </c>
+    </row>
+    <row r="65" spans="5:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E65" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="F65" s="1">
+        <v>93.1</v>
+      </c>
+      <c r="G65" s="2">
+        <f t="shared" si="0"/>
+        <v>30.4</v>
       </c>
     </row>
   </sheetData>
